--- a/wcsm9automationproject/src/main/resources/ActiTimeTestData1.xlsx
+++ b/wcsm9automationproject/src/main/resources/ActiTimeTestData1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinm\git\Wcsm9AutomationTesting\wcsm9automationproject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F6E258-D90C-4125-A4F9-0773C8028B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911DB58-5448-4A16-AC65-503994D9D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="project&amp;customer" sheetId="3" r:id="rId3"/>
+    <sheet name="managercreds" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -68,6 +70,39 @@
   </si>
   <si>
     <t>yu8i</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>SBI Bank</t>
+  </si>
+  <si>
+    <t>SBI Connect</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>chinmayeejj</t>
+  </si>
+  <si>
+    <t>chinmayee123</t>
+  </si>
+  <si>
+    <t>Chinmayee</t>
+  </si>
+  <si>
+    <t>Jakate</t>
+  </si>
+  <si>
+    <t>Workday Duration</t>
   </si>
 </sst>
 </file>
@@ -132,12 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2772AB17-CB6C-49A9-8905-2DF20CEB7B0D}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +561,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A469B5E-69E8-4983-A753-F958093397AF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52474-3CF0-4690-B139-0C682E6D636F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>